--- a/STB32/Confiabilidade_Miguel.xlsx
+++ b/STB32/Confiabilidade_Miguel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4ddf84058e614ca/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E0BFC1AF-877B-4C59-B260-C5F20A31B759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C8943B-A7ED-4EF1-9D39-1CAC3E176153}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6AD1DA-DC33-48C5-A721-249792BCC45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="SegmentaçãodeDados_Barra_PARA">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Circuito">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -44,9 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -106,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="125">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -571,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,52 +577,25 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -633,12 +604,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="79">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -656,20 +643,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -684,6 +662,235 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -691,6 +898,345 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1242,47 +1788,16 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1309,16 +1824,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1340,682 +1856,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -2477,28 +2317,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J3" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J3" totalsRowCount="1" headerRowDxfId="57" dataDxfId="55" totalsRowDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="54">
   <autoFilter ref="B1:J2" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -2508,45 +2348,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P43" totalsRowCount="1" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P43" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="B1:P42" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="50" totalsRowDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="39" totalsRowDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="49" totalsRowDxfId="33">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="16" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="15" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="29" totalsRowDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="38" totalsRowDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="48" totalsRowDxfId="31">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="28" totalsRowDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="27" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="47" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="46" totalsRowDxfId="29">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="26" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="25" totalsRowDxfId="8">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="37" totalsRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="45" totalsRowDxfId="27">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="24" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="23" totalsRowDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="36" totalsRowDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="44" totalsRowDxfId="25">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="21" totalsRowDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="43" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="20" totalsRowDxfId="3">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="23">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="2">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="22">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="1">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="21">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(P2:P42)</totalsRowFormula>
     </tableColumn>
@@ -24540,10 +24380,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C7D0E8-6D75-4206-A1C8-6102FE687BCC}">
-  <dimension ref="A1:AT42"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24569,7 +24409,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -24616,7 +24456,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>478</v>
       </c>
@@ -24647,40 +24487,50 @@
       <c r="K2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>663</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>955</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>979</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <v>995</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <v>979</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X2" s="1">
+        <v>663</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>85.1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>979</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>995</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>486</v>
       </c>
@@ -24707,40 +24557,50 @@
         <v>959</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>517</v>
       </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>938</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
         <v>946</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <v>938</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="1">
         <v>959</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>517</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>938</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>946</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>938</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>477</v>
       </c>
@@ -24767,40 +24627,50 @@
         <v>979</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>747</v>
       </c>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <v>976</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <v>979</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <v>955</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="1">
         <v>964</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X4" s="1">
+        <v>747</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>976</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>979</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>346</v>
       </c>
@@ -24827,40 +24697,50 @@
         <v>979</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>641</v>
       </c>
-      <c r="M5" s="3">
-        <v>2</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <v>955</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <v>964</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <v>976</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <v>979</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X5" s="1">
+        <v>641</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>964</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>976</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>344</v>
       </c>
@@ -24887,36 +24767,50 @@
         <v>976</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>748</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <v>976</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <v>979</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <v>995</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="1">
         <v>979</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X6" s="1">
+        <v>748</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>976</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>979</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>995</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>456</v>
       </c>
@@ -24927,36 +24821,50 @@
         <v>3.2</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>762</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>3</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <v>955</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
         <v>964</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="1">
         <v>995</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="1">
         <v>979</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X7" s="1">
+        <v>762</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>964</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>995</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>497</v>
       </c>
@@ -24967,36 +24875,50 @@
         <v>3.2</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>643</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>3</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="1">
         <v>955</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
         <v>964</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
         <v>995</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
         <v>979</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X8" s="1">
+        <v>643</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>964</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>995</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>439</v>
       </c>
@@ -25007,36 +24929,50 @@
         <v>2.6</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>438</v>
       </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="1">
         <v>933</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="1">
         <v>959</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="1">
         <v>955</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="1">
         <v>946</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X9" s="1">
+        <v>438</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>933</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>959</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>507</v>
       </c>
@@ -25047,36 +24983,50 @@
         <v>2.4</v>
       </c>
       <c r="K10" s="12"/>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>662</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>3</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="1">
         <v>955</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="1">
         <v>979</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="1">
         <v>955</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="1">
         <v>964</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X10" s="1">
+        <v>662</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>979</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>476</v>
       </c>
@@ -25087,36 +25037,50 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>636</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="1">
         <v>955</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="1">
         <v>964</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="1">
         <v>955</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="1">
         <v>979</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X11" s="1">
+        <v>636</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>964</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>438</v>
       </c>
@@ -25127,36 +25091,50 @@
         <v>1.2</v>
       </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>379</v>
       </c>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
         <v>933</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="1">
         <v>895</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="1">
         <v>955</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="1">
         <v>946</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X12" s="1">
+        <v>379</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>933</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>895</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>511</v>
       </c>
@@ -25167,36 +25145,50 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>661</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="1">
         <v>955</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="1">
         <v>979</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="1">
         <v>976</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="1">
         <v>979</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X13" s="1">
+        <v>661</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>979</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>976</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>508</v>
       </c>
@@ -25207,36 +25199,50 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>628</v>
       </c>
-      <c r="M14" s="3">
-        <v>2</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="1">
         <v>955</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="1">
         <v>946</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="1">
         <v>1010</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="1">
         <v>947</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X14" s="1">
+        <v>628</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>946</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>269</v>
       </c>
@@ -25247,36 +25253,50 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K15" s="12"/>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>617</v>
       </c>
-      <c r="M15" s="3">
-        <v>2</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="1">
         <v>955</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="1">
         <v>946</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="1">
         <v>960</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="1">
         <v>1015</v>
       </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X15" s="1">
+        <v>617</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>946</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>960</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>510</v>
       </c>
@@ -25287,36 +25307,50 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K16" s="12"/>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>409</v>
       </c>
-      <c r="M16" s="3">
-        <v>2</v>
-      </c>
-      <c r="N16" s="3" t="s">
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="1">
         <v>933</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="1">
         <v>955</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="1">
         <v>955</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="1">
         <v>946</v>
       </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="X16" s="1">
+        <v>409</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>933</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>955</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>347</v>
       </c>
@@ -25327,263 +25361,355 @@
         <v>1</v>
       </c>
       <c r="K17" s="12"/>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>406</v>
       </c>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="1">
         <v>933</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="1">
         <v>955</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="1">
         <v>938</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="1">
         <v>955</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="X17" s="1">
+        <v>406</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>933</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>955</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>938</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K18" s="12"/>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <v>548</v>
       </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3" t="s">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="1">
         <v>938</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="1">
         <v>955</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="1">
         <v>960</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="1">
         <v>1015</v>
       </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="X18" s="1">
+        <v>548</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>938</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>955</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>960</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K19" s="12"/>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>732</v>
       </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3" t="s">
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="1">
         <v>965</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="1">
         <v>1057</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="1">
         <v>955</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="1">
         <v>964</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="X19" s="1">
+        <v>732</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>965</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1057</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>955</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K20" s="12"/>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>640</v>
       </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3" t="s">
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="1">
         <v>955</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="1">
         <v>964</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
         <v>965</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="1">
         <v>1057</v>
       </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="X20" s="1">
+        <v>640</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>955</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>964</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>965</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>407</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>3</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="1">
         <v>933</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="1">
         <v>955</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="1">
         <v>938</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="1">
         <v>959</v>
       </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K22" s="12"/>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>572</v>
       </c>
-      <c r="M22" s="3">
-        <v>2</v>
-      </c>
-      <c r="N22" s="3" t="s">
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="1">
         <v>938</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="1">
         <v>959</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="1">
         <v>960</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="1">
         <v>1015</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="W22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="X22" s="1">
+        <v>407</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>933</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>955</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>938</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K23" s="12"/>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>296</v>
       </c>
-      <c r="M23" s="3">
-        <v>2</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="1">
         <v>856</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="1">
         <v>933</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="1">
         <v>999</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="1">
         <v>933</v>
       </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="W23" s="12"/>
+      <c r="X23" s="1">
+        <v>572</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>938</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>959</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>960</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="K24" s="12"/>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>739</v>
       </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="1">
         <v>965</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="1">
         <v>1057</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="1">
         <v>1010</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="1">
         <v>947</v>
       </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K25" s="13" t="s">
+      <c r="W24" s="12"/>
+      <c r="X24" s="1">
+        <v>296</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>856</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>933</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>999</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K25" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>568</v>
       </c>
       <c r="O25" s="1">
@@ -25598,27 +25724,32 @@
       <c r="R25" s="1">
         <v>946</v>
       </c>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K26" s="13"/>
-      <c r="L26" s="3">
+      <c r="W25" s="12"/>
+      <c r="X25" s="1">
+        <v>739</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>965</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1057</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1010</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K26" s="12"/>
+      <c r="L26" s="1">
         <v>819</v>
       </c>
       <c r="O26" s="1">
@@ -25634,9 +25765,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K27" s="13"/>
-      <c r="L27" s="3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K27" s="12"/>
+      <c r="L27" s="1">
         <v>786</v>
       </c>
       <c r="O27" s="1">
@@ -25652,9 +25783,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K28" s="13"/>
-      <c r="L28" s="3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K28" s="12"/>
+      <c r="L28" s="1">
         <v>728</v>
       </c>
       <c r="O28" s="1">
@@ -25670,9 +25801,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K29" s="13"/>
-      <c r="L29" s="3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K29" s="12"/>
+      <c r="L29" s="1">
         <v>717</v>
       </c>
       <c r="O29" s="1">
@@ -25688,9 +25819,9 @@
         <v>979</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K30" s="13"/>
-      <c r="L30" s="3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K30" s="12"/>
+      <c r="L30" s="1">
         <v>660</v>
       </c>
       <c r="O30" s="1">
@@ -25706,9 +25837,9 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K31" s="13"/>
-      <c r="L31" s="3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K31" s="12"/>
+      <c r="L31" s="1">
         <v>659</v>
       </c>
       <c r="O31" s="1">
@@ -25724,9 +25855,9 @@
         <v>976</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="K32" s="13"/>
-      <c r="L32" s="3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K32" s="12"/>
+      <c r="L32" s="1">
         <v>544</v>
       </c>
       <c r="O32" s="1">
@@ -25743,8 +25874,8 @@
       </c>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="13"/>
-      <c r="L33" s="3">
+      <c r="K33" s="12"/>
+      <c r="L33" s="1">
         <v>542</v>
       </c>
       <c r="O33" s="1">
@@ -25761,8 +25892,8 @@
       </c>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="13"/>
-      <c r="L34" s="3">
+      <c r="K34" s="12"/>
+      <c r="L34" s="1">
         <v>519</v>
       </c>
       <c r="O34" s="1">
@@ -25779,8 +25910,8 @@
       </c>
     </row>
     <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="13"/>
-      <c r="L35" s="3">
+      <c r="K35" s="12"/>
+      <c r="L35" s="1">
         <v>516</v>
       </c>
       <c r="O35" s="1">
@@ -25797,8 +25928,8 @@
       </c>
     </row>
     <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="13"/>
-      <c r="L36" s="3">
+      <c r="K36" s="12"/>
+      <c r="L36" s="1">
         <v>435</v>
       </c>
       <c r="O36" s="1">
@@ -25815,8 +25946,8 @@
       </c>
     </row>
     <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="13"/>
-      <c r="L37" s="3">
+      <c r="K37" s="12"/>
+      <c r="L37" s="1">
         <v>414</v>
       </c>
       <c r="O37" s="1">
@@ -25833,8 +25964,8 @@
       </c>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="13"/>
-      <c r="L38" s="3">
+      <c r="K38" s="12"/>
+      <c r="L38" s="1">
         <v>388</v>
       </c>
       <c r="O38" s="1">
@@ -25851,8 +25982,8 @@
       </c>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="13"/>
-      <c r="L39" s="3">
+      <c r="K39" s="12"/>
+      <c r="L39" s="1">
         <v>376</v>
       </c>
       <c r="O39" s="1">
@@ -25869,8 +26000,8 @@
       </c>
     </row>
     <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="13"/>
-      <c r="L40" s="3">
+      <c r="K40" s="12"/>
+      <c r="L40" s="1">
         <v>372</v>
       </c>
       <c r="O40" s="1">
@@ -25887,8 +26018,8 @@
       </c>
     </row>
     <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="13"/>
-      <c r="L41" s="3">
+      <c r="K41" s="12"/>
+      <c r="L41" s="1">
         <v>360</v>
       </c>
       <c r="O41" s="1">
@@ -25905,8 +26036,8 @@
       </c>
     </row>
     <row r="42" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K42" s="13"/>
-      <c r="L42" s="3">
+      <c r="K42" s="12"/>
+      <c r="L42" s="1">
         <v>292</v>
       </c>
       <c r="O42" s="1">
@@ -25923,11 +26054,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="K2:K20"/>
     <mergeCell ref="K21:K24"/>
     <mergeCell ref="K25:K42"/>
+    <mergeCell ref="W22:W25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -25938,121 +26070,121 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>38</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>963</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>MCLARO-RS230</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>965</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="1" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="7">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4266999999999999E-4</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="7">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99985732999999999</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="7">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="18">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9">
         <f>1-Tabela6[[#Totals],[P]]</f>
         <v>1.426700000000114E-4</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="9">
         <f>PRODUCT(Tabela6[P])</f>
         <v>0.99985732999999999</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="9">
         <f>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" s="19"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="19"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="20"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26068,33 +26200,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -26139,2348 +26271,2347 @@
       <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>663</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>955</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>979</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>995</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>979</v>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="L2" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1">
         <v>517</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>938</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>946</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>938</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>959</v>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="L3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="4">
         <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1">
         <v>747</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>976</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>979</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>955</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>964</v>
       </c>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="4">
         <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>2.1051108100000004E-8</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999997894889192</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1">
         <v>641</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>955</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>964</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>976</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>979</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="4">
         <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1">
         <v>748</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>976</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>979</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>995</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>979</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="4">
         <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>2.1051108100000004E-8</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999997894889192</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1">
         <v>762</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>955</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>964</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>995</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>979</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="4">
         <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1">
         <v>643</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>955</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>964</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>995</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>979</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="4">
         <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1">
         <v>438</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>933</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>959</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>955</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>946</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="4">
         <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1">
         <v>662</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>955</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>979</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>955</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>964</v>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="4">
         <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1">
         <v>636</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>955</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>964</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>955</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>979</v>
       </c>
-      <c r="L11" s="5" t="str">
+      <c r="L11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="4">
         <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1">
         <v>379</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>933</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>895</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>955</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>946</v>
       </c>
-      <c r="L12" s="5" t="str">
+      <c r="L12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="4">
         <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1">
         <v>661</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>955</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>979</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>976</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="J13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>979</v>
       </c>
-      <c r="L13" s="5" t="str">
+      <c r="L13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="4">
         <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1">
         <v>628</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>955</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>946</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>1010</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="J14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>947</v>
       </c>
-      <c r="L14" s="5" t="str">
+      <c r="L14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="4">
         <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1">
         <v>617</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>955</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>946</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>960</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="J15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>1015</v>
       </c>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="4">
         <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="1">
         <v>409</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>933</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>955</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>955</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>946</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="4">
         <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1">
         <v>406</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>933</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>955</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>938</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>955</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="4">
         <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1">
         <v>548</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>938</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>955</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>960</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>1015</v>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="4">
         <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1">
         <v>732</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>965</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>1057</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>955</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>964</v>
       </c>
-      <c r="L19" s="5" t="str">
+      <c r="L19" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="4">
         <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>3.1792682249999995E-7</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999968207317746</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1">
         <v>640</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>955</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>964</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>965</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>1057</v>
       </c>
-      <c r="L20" s="5" t="str">
+      <c r="L20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="4">
         <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3">
+      <c r="A21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
         <v>407</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>933</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>955</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>938</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>959</v>
       </c>
-      <c r="L21" s="5" t="str">
+      <c r="L21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="4">
         <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1">
         <v>572</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>938</v>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="D22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>959</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>960</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>1015</v>
       </c>
-      <c r="L22" s="5" t="str">
+      <c r="L22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="4">
         <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>4.6018585689999998E-7</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999953981414313</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="1">
         <v>296</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>856</v>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="D23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>933</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>999</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>933</v>
       </c>
-      <c r="L23" s="5" t="str">
+      <c r="L23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="4">
         <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1">
         <v>739</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>965</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>1057</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>1010</v>
       </c>
-      <c r="J24" s="5" t="str">
+      <c r="J24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>947</v>
       </c>
-      <c r="L24" s="5" t="str">
+      <c r="L24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="4">
         <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>3.1792682249999995E-7</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999968207317746</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3">
+      <c r="A25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1">
         <v>568</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>938</v>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="D25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>959</v>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>955</v>
       </c>
-      <c r="J25" s="5" t="str">
+      <c r="J25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>946</v>
       </c>
-      <c r="L25" s="5" t="str">
+      <c r="L25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="4">
         <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>4.6018585689999998E-7</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999953981414313</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1">
         <v>819</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>999</v>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="D26" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>896</v>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>1060</v>
       </c>
-      <c r="J26" s="5" t="str">
+      <c r="J26" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>897</v>
       </c>
-      <c r="L26" s="5" t="str">
+      <c r="L26" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="4">
         <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.0547289999999998E-6</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999894527099997</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1">
         <v>786</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>995</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>979</v>
       </c>
-      <c r="F27" s="5" t="str">
+      <c r="F27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>1060</v>
       </c>
-      <c r="J27" s="5" t="str">
+      <c r="J27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>897</v>
       </c>
-      <c r="L27" s="5" t="str">
+      <c r="L27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="4">
         <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>2.3783808400000003E-6</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999762161915995</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1">
         <v>728</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>964</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D28" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>976</v>
       </c>
-      <c r="F28" s="5" t="str">
+      <c r="F28" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
         <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <v>1060</v>
       </c>
-      <c r="J28" s="5" t="str">
+      <c r="J28" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <v>897</v>
       </c>
-      <c r="L28" s="5" t="str">
+      <c r="L28" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="4">
         <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5013300089999999E-7</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999984986699908</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1">
         <v>717</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>964</v>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="D29" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>976</v>
       </c>
-      <c r="F29" s="5" t="str">
+      <c r="F29" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
         <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>995</v>
       </c>
-      <c r="J29" s="5" t="str">
+      <c r="J29" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <v>979</v>
       </c>
-      <c r="L29" s="5" t="str">
+      <c r="L29" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="4">
         <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5013300089999999E-7</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999984986699908</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="1">
         <v>660</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>955</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D30" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>979</v>
       </c>
-      <c r="F30" s="5" t="str">
+      <c r="F30" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
         <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <v>965</v>
       </c>
-      <c r="J30" s="5" t="str">
+      <c r="J30" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <v>1057</v>
       </c>
-      <c r="L30" s="5" t="str">
+      <c r="L30" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="4">
         <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="1">
         <v>659</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>955</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>979</v>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
         <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <v>964</v>
       </c>
-      <c r="J31" s="5" t="str">
+      <c r="J31" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <v>976</v>
       </c>
-      <c r="L31" s="5" t="str">
+      <c r="L31" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="4">
         <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="1">
         <v>544</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>938</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>955</v>
       </c>
-      <c r="F32" s="5" t="str">
+      <c r="F32" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
         <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <v>955</v>
       </c>
-      <c r="J32" s="5" t="str">
+      <c r="J32" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <v>946</v>
       </c>
-      <c r="L32" s="5" t="str">
+      <c r="L32" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="4">
         <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="1">
         <v>542</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>938</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>955</v>
       </c>
-      <c r="F33" s="5" t="str">
+      <c r="F33" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
         <f t="array" ref="H33">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>938</v>
       </c>
-      <c r="J33" s="5" t="str">
+      <c r="J33" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>959</v>
       </c>
-      <c r="L33" s="5" t="str">
+      <c r="L33" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="4">
         <f t="array" ref="M33">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="1">
         <v>519</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>938</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>946</v>
       </c>
-      <c r="F34" s="5" t="str">
+      <c r="F34" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
         <f t="array" ref="H34">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>955</v>
       </c>
-      <c r="J34" s="5" t="str">
+      <c r="J34" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>946</v>
       </c>
-      <c r="L34" s="5" t="str">
+      <c r="L34" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="4">
         <f t="array" ref="M34">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="1">
         <v>516</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>938</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>946</v>
       </c>
-      <c r="F35" s="5" t="str">
+      <c r="F35" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="5">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
         <f t="array" ref="H35">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>938</v>
       </c>
-      <c r="J35" s="5" t="str">
+      <c r="J35" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>955</v>
       </c>
-      <c r="L35" s="5" t="str">
+      <c r="L35" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="4">
         <f t="array" ref="M35">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="1">
         <v>435</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>933</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>959</v>
       </c>
-      <c r="F36" s="5" t="str">
+      <c r="F36" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="5">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
         <f t="array" ref="H36">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>938</v>
       </c>
-      <c r="J36" s="5" t="str">
+      <c r="J36" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>955</v>
       </c>
-      <c r="L36" s="5" t="str">
+      <c r="L36" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="4">
         <f t="array" ref="M36">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="1">
         <v>414</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>933</v>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>955</v>
       </c>
-      <c r="F37" s="5" t="str">
+      <c r="F37" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="5">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
         <f t="array" ref="H37">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>964</v>
       </c>
-      <c r="J37" s="5" t="str">
+      <c r="J37" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>976</v>
       </c>
-      <c r="L37" s="5" t="str">
+      <c r="L37" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="4">
         <f t="array" ref="M37">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="1">
         <v>388</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>933</v>
       </c>
-      <c r="D38" s="5" t="str">
+      <c r="D38" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>895</v>
       </c>
-      <c r="F38" s="5" t="str">
+      <c r="F38" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="5">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
         <f t="array" ref="H38">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <v>995</v>
       </c>
-      <c r="J38" s="5" t="str">
+      <c r="J38" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <v>979</v>
       </c>
-      <c r="L38" s="5" t="str">
+      <c r="L38" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="4">
         <f t="array" ref="M38">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="1">
         <v>376</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>933</v>
       </c>
-      <c r="D39" s="5" t="str">
+      <c r="D39" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>895</v>
       </c>
-      <c r="F39" s="5" t="str">
+      <c r="F39" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="5">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
         <f t="array" ref="H39">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>938</v>
       </c>
-      <c r="J39" s="5" t="str">
+      <c r="J39" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <v>955</v>
       </c>
-      <c r="L39" s="5" t="str">
+      <c r="L39" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="4">
         <f t="array" ref="M39">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="1">
         <v>372</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>933</v>
       </c>
-      <c r="D40" s="5" t="str">
+      <c r="D40" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>895</v>
       </c>
-      <c r="F40" s="5" t="str">
+      <c r="F40" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="5">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
         <f t="array" ref="H40">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <v>933</v>
       </c>
-      <c r="J40" s="5" t="str">
+      <c r="J40" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <v>959</v>
       </c>
-      <c r="L40" s="5" t="str">
+      <c r="L40" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="4">
         <f t="array" ref="M40">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="1">
         <v>360</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>896</v>
       </c>
-      <c r="D41" s="5" t="str">
+      <c r="D41" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>897</v>
       </c>
-      <c r="F41" s="5" t="str">
+      <c r="F41" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="5">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
         <f t="array" ref="H41">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>999</v>
       </c>
-      <c r="J41" s="5" t="str">
+      <c r="J41" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <v>896</v>
       </c>
-      <c r="L41" s="5" t="str">
+      <c r="L41" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="4">
         <f t="array" ref="M41">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.5982236099999996E-8</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999990401776395</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="1">
         <v>292</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>856</v>
       </c>
-      <c r="D42" s="5" t="str">
+      <c r="D42" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>933</v>
       </c>
-      <c r="F42" s="5" t="str">
+      <c r="F42" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="5">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
         <f t="array" ref="H42">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <v>995</v>
       </c>
-      <c r="J42" s="5" t="str">
+      <c r="J42" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <v>979</v>
       </c>
-      <c r="L42" s="5" t="str">
+      <c r="L42" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="4">
         <f t="array" ref="M42">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="4">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="N43" s="1">
         <f>1-Tabela14[[#Totals],[P Eq]]</f>
         <v>3.8396879704083453E-5</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="1">
         <f>PRODUCT(Tabela14[P Eq])</f>
         <v>0.99996160312029592</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="3">
         <f>PRODUCT(P2:P42)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/STB32/Confiabilidade_Miguel.xlsx
+++ b/STB32/Confiabilidade_Miguel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6AD1DA-DC33-48C5-A721-249792BCC45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD82A8-B579-43DB-94F5-6799EC104F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="4" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="127">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -480,16 +480,23 @@
   <si>
     <t>1.3</t>
   </si>
+  <si>
+    <t>Ptotal</t>
+  </si>
+  <si>
+    <t>Qtotal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -534,20 +541,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -564,12 +562,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,24 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -607,24 +685,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="81">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -643,7 +863,74 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -662,7 +949,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -681,7 +1037,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -700,7 +1083,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -719,7 +1124,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -738,7 +1169,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -757,7 +1210,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -776,7 +1256,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -795,7 +1297,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -814,7 +1342,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -833,7 +1384,250 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -855,27 +1649,40 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -898,6 +1705,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -920,6 +1764,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -942,6 +1825,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -964,6 +1886,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -985,6 +1962,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1006,6 +2038,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1027,6 +2114,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1048,6 +2190,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1070,6 +2267,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1092,6 +2344,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1113,6 +2420,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1134,6 +2496,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1155,6 +2572,174 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1209,632 +2794,7 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2261,84 +3221,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:E59" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A1:E39" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
     <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="H1:L39" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:L39">
     <sortCondition ref="H1:H39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J3" totalsRowCount="1" headerRowDxfId="57" dataDxfId="55" totalsRowDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J3" totalsRowCount="1" headerRowDxfId="1" dataDxfId="59" totalsRowDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
   <autoFilter ref="B1:J2" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -2348,45 +3308,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P43" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P43" totalsRowCount="1" headerRowDxfId="24" dataDxfId="57" totalsRowDxfId="23" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="B1:P42" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="16" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="15" totalsRowDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="29" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="28" totalsRowDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="27" totalsRowDxfId="10">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="26" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="25" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="24" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="23" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="21" totalsRowDxfId="4">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="20" totalsRowDxfId="3">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="1">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="0">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(P2:P42)</totalsRowFormula>
     </tableColumn>
@@ -24382,7 +25342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C7D0E8-6D75-4206-A1C8-6102FE687BCC}">
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O42"/>
     </sheetView>
   </sheetViews>
@@ -24466,7 +25426,7 @@
       <c r="C2" s="1">
         <v>9.6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="1">
@@ -24484,7 +25444,7 @@
       <c r="I2" s="1">
         <v>897</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="L2" s="1">
@@ -24540,7 +25500,7 @@
       <c r="C3" s="1">
         <v>5.5</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1">
         <v>13</v>
       </c>
@@ -24556,7 +25516,7 @@
       <c r="I3" s="1">
         <v>959</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1">
         <v>517</v>
       </c>
@@ -24610,7 +25570,7 @@
       <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1">
         <v>24</v>
       </c>
@@ -24626,7 +25586,7 @@
       <c r="I4" s="1">
         <v>979</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1">
         <v>747</v>
       </c>
@@ -24680,7 +25640,7 @@
       <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <v>17</v>
       </c>
@@ -24696,7 +25656,7 @@
       <c r="I5" s="1">
         <v>979</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1">
         <v>641</v>
       </c>
@@ -24750,7 +25710,7 @@
       <c r="C6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <v>20</v>
       </c>
@@ -24766,7 +25726,7 @@
       <c r="I6" s="1">
         <v>976</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1">
         <v>748</v>
       </c>
@@ -24820,7 +25780,7 @@
       <c r="C7" s="1">
         <v>3.2</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1">
         <v>762</v>
       </c>
@@ -24874,7 +25834,7 @@
       <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1">
         <v>643</v>
       </c>
@@ -24928,7 +25888,7 @@
       <c r="C9" s="1">
         <v>2.6</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1">
         <v>438</v>
       </c>
@@ -24982,7 +25942,7 @@
       <c r="C10" s="1">
         <v>2.4</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1">
         <v>662</v>
       </c>
@@ -25036,7 +25996,7 @@
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1">
         <v>636</v>
       </c>
@@ -25090,7 +26050,7 @@
       <c r="C12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="1">
         <v>379</v>
       </c>
@@ -25144,7 +26104,7 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="1">
         <v>661</v>
       </c>
@@ -25198,7 +26158,7 @@
       <c r="C14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="1">
         <v>628</v>
       </c>
@@ -25252,7 +26212,7 @@
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="1">
         <v>617</v>
       </c>
@@ -25306,7 +26266,7 @@
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="1">
         <v>409</v>
       </c>
@@ -25360,7 +26320,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1">
         <v>406</v>
       </c>
@@ -25405,7 +26365,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K18" s="12"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="1">
         <v>548</v>
       </c>
@@ -25450,7 +26410,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K19" s="12"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="1">
         <v>732</v>
       </c>
@@ -25495,7 +26455,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K20" s="12"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1">
         <v>640</v>
       </c>
@@ -25540,7 +26500,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="6" t="s">
         <v>100</v>
       </c>
       <c r="L21" s="1">
@@ -25566,7 +26526,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K22" s="12"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="1">
         <v>572</v>
       </c>
@@ -25588,7 +26548,7 @@
       <c r="R22" s="1">
         <v>1015</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="6" t="s">
         <v>100</v>
       </c>
       <c r="X22" s="1">
@@ -25614,7 +26574,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K23" s="12"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="1">
         <v>296</v>
       </c>
@@ -25636,7 +26596,7 @@
       <c r="R23" s="1">
         <v>933</v>
       </c>
-      <c r="W23" s="12"/>
+      <c r="W23" s="6"/>
       <c r="X23" s="1">
         <v>572</v>
       </c>
@@ -25660,7 +26620,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K24" s="12"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="1">
         <v>739</v>
       </c>
@@ -25682,7 +26642,7 @@
       <c r="R24" s="1">
         <v>947</v>
       </c>
-      <c r="W24" s="12"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="1">
         <v>296</v>
       </c>
@@ -25706,7 +26666,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="6" t="s">
         <v>107</v>
       </c>
       <c r="L25" s="1">
@@ -25724,7 +26684,7 @@
       <c r="R25" s="1">
         <v>946</v>
       </c>
-      <c r="W25" s="12"/>
+      <c r="W25" s="6"/>
       <c r="X25" s="1">
         <v>739</v>
       </c>
@@ -25748,7 +26708,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K26" s="12"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="1">
         <v>819</v>
       </c>
@@ -25766,7 +26726,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K27" s="12"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="1">
         <v>786</v>
       </c>
@@ -25784,7 +26744,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K28" s="12"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="1">
         <v>728</v>
       </c>
@@ -25802,7 +26762,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K29" s="12"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="1">
         <v>717</v>
       </c>
@@ -25820,7 +26780,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="12"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1">
         <v>660</v>
       </c>
@@ -25838,7 +26798,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K31" s="12"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1">
         <v>659</v>
       </c>
@@ -25856,7 +26816,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K32" s="12"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1">
         <v>544</v>
       </c>
@@ -25874,7 +26834,7 @@
       </c>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="12"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1">
         <v>542</v>
       </c>
@@ -25892,7 +26852,7 @@
       </c>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="12"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="1">
         <v>519</v>
       </c>
@@ -25910,7 +26870,7 @@
       </c>
     </row>
     <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K35" s="12"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1">
         <v>516</v>
       </c>
@@ -25928,7 +26888,7 @@
       </c>
     </row>
     <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="12"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1">
         <v>435</v>
       </c>
@@ -25946,7 +26906,7 @@
       </c>
     </row>
     <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="12"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1">
         <v>414</v>
       </c>
@@ -25964,7 +26924,7 @@
       </c>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="12"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="1">
         <v>388</v>
       </c>
@@ -25982,7 +26942,7 @@
       </c>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="12"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="1">
         <v>376</v>
       </c>
@@ -26000,7 +26960,7 @@
       </c>
     </row>
     <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="12"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="1">
         <v>372</v>
       </c>
@@ -26018,7 +26978,7 @@
       </c>
     </row>
     <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="12"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="1">
         <v>360</v>
       </c>
@@ -26036,7 +26996,7 @@
       </c>
     </row>
     <row r="42" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K42" s="12"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="1">
         <v>292</v>
       </c>
@@ -26069,8 +27029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4C73E-833A-4410-9019-FF849DCE3D9B}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26089,102 +27049,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="18">
         <v>38</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>963</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>MCLARO-RS230</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>965</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="13">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4266999999999999E-4</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="13">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99985732999999999</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="19">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22">
         <f>1-Tabela6[[#Totals],[P]]</f>
         <v>1.426700000000114E-4</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="22">
         <f>PRODUCT(Tabela6[P])</f>
         <v>0.99985732999999999</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="23">
         <f>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</f>
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="1">
+        <f>PRODUCT(Tabela6[P],Tabela14[P Eq])</f>
+        <v>0.99981893859837834</v>
+      </c>
+      <c r="J6" s="25">
+        <f>I6</f>
+        <v>0.99981893859837834</v>
+      </c>
+    </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" s="10"/>
+      <c r="H7" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1-I6</f>
+        <v>1.8106140162166273E-4</v>
+      </c>
+      <c r="J7" s="25">
+        <f>I7</f>
+        <v>1.8106140162166273E-4</v>
+      </c>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="10"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="11"/>
+      <c r="K9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26200,8 +27184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26226,2383 +27210,2385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>663</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>955</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>979</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="8">
         <v>995</v>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="8">
         <v>979</v>
       </c>
-      <c r="L2" s="4" t="str">
+      <c r="L2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7">
         <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8">
         <v>517</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>938</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <v>946</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="8">
         <v>938</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="8">
         <v>959</v>
       </c>
-      <c r="L3" s="4" t="str">
+      <c r="L3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="7">
         <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8">
         <v>747</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>976</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>979</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="8">
         <v>955</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="8">
         <v>964</v>
       </c>
-      <c r="L4" s="4" t="str">
+      <c r="L4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="7">
         <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>2.1051108100000004E-8</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999997894889192</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8">
         <v>641</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>955</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>964</v>
       </c>
-      <c r="F5" s="4" t="str">
+      <c r="F5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>976</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="8">
         <v>979</v>
       </c>
-      <c r="L5" s="4" t="str">
+      <c r="L5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="7">
         <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8">
         <v>748</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>976</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>979</v>
       </c>
-      <c r="F6" s="4" t="str">
+      <c r="F6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="8">
         <v>995</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="8">
         <v>979</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="7">
         <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>2.1051108100000004E-8</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999997894889192</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8">
         <v>762</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>955</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <v>964</v>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="7">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="8">
         <v>995</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="8">
         <v>979</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="7">
         <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8">
         <v>643</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>955</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <v>964</v>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
         <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="8">
         <v>995</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="8">
         <v>979</v>
       </c>
-      <c r="L8" s="4" t="str">
+      <c r="L8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="7">
         <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8">
         <v>438</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>933</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <v>959</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <v>955</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <v>946</v>
       </c>
-      <c r="L9" s="4" t="str">
+      <c r="L9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="7">
         <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8">
         <v>662</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>955</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>979</v>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="F10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <v>955</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="8">
         <v>964</v>
       </c>
-      <c r="L10" s="4" t="str">
+      <c r="L10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="7">
         <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8">
         <v>636</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>955</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <v>964</v>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="F11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="7">
         <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <v>955</v>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="J11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="8">
         <v>979</v>
       </c>
-      <c r="L11" s="4" t="str">
+      <c r="L11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="7">
         <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8">
         <v>379</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>933</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="8">
         <v>895</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="F12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="7">
         <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="8">
         <v>955</v>
       </c>
-      <c r="J12" s="4" t="str">
+      <c r="J12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="8">
         <v>946</v>
       </c>
-      <c r="L12" s="4" t="str">
+      <c r="L12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="7">
         <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8">
         <v>661</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>955</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="8">
         <v>979</v>
       </c>
-      <c r="F13" s="4" t="str">
+      <c r="F13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="8">
         <v>976</v>
       </c>
-      <c r="J13" s="4" t="str">
+      <c r="J13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="8">
         <v>979</v>
       </c>
-      <c r="L13" s="4" t="str">
+      <c r="L13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="7">
         <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8">
         <v>628</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>955</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="8">
         <v>946</v>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="F14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="8">
         <v>1010</v>
       </c>
-      <c r="J14" s="4" t="str">
+      <c r="J14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="8">
         <v>947</v>
       </c>
-      <c r="L14" s="4" t="str">
+      <c r="L14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="7">
         <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8">
         <v>617</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>955</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="8">
         <v>946</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="8">
         <v>960</v>
       </c>
-      <c r="J15" s="4" t="str">
+      <c r="J15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="8">
         <v>1015</v>
       </c>
-      <c r="L15" s="4" t="str">
+      <c r="L15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="7">
         <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8">
         <v>409</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>933</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="8">
         <v>955</v>
       </c>
-      <c r="F16" s="4" t="str">
+      <c r="F16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="8">
         <v>955</v>
       </c>
-      <c r="J16" s="4" t="str">
+      <c r="J16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="8">
         <v>946</v>
       </c>
-      <c r="L16" s="4" t="str">
+      <c r="L16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="7">
         <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8">
         <v>406</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>933</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="8">
         <v>955</v>
       </c>
-      <c r="F17" s="4" t="str">
+      <c r="F17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="8">
         <v>938</v>
       </c>
-      <c r="J17" s="4" t="str">
+      <c r="J17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="8">
         <v>955</v>
       </c>
-      <c r="L17" s="4" t="str">
+      <c r="L17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="7">
         <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8">
         <v>548</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>938</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="8">
         <v>955</v>
       </c>
-      <c r="F18" s="4" t="str">
+      <c r="F18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7">
         <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="8">
         <v>960</v>
       </c>
-      <c r="J18" s="4" t="str">
+      <c r="J18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="8">
         <v>1015</v>
       </c>
-      <c r="L18" s="4" t="str">
+      <c r="L18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="7">
         <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8">
         <v>732</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="8">
         <v>965</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="8">
         <v>1057</v>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="F19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
         <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="8">
         <v>955</v>
       </c>
-      <c r="J19" s="4" t="str">
+      <c r="J19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="8">
         <v>964</v>
       </c>
-      <c r="L19" s="4" t="str">
+      <c r="L19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="7">
         <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>3.1792682249999995E-7</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999968207317746</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8">
         <v>640</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>955</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="8">
         <v>964</v>
       </c>
-      <c r="F20" s="4" t="str">
+      <c r="F20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="8">
         <v>965</v>
       </c>
-      <c r="J20" s="4" t="str">
+      <c r="J20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="8">
         <v>1057</v>
       </c>
-      <c r="L20" s="4" t="str">
+      <c r="L20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="7">
         <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>407</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>933</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="8">
         <v>955</v>
       </c>
-      <c r="F21" s="4" t="str">
+      <c r="F21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="7">
         <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="8">
         <v>938</v>
       </c>
-      <c r="J21" s="4" t="str">
+      <c r="J21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="8">
         <v>959</v>
       </c>
-      <c r="L21" s="4" t="str">
+      <c r="L21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="7">
         <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8">
         <v>572</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>938</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="8">
         <v>959</v>
       </c>
-      <c r="F22" s="4" t="str">
+      <c r="F22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="7">
         <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="8">
         <v>960</v>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="J22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="8">
         <v>1015</v>
       </c>
-      <c r="L22" s="4" t="str">
+      <c r="L22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="7">
         <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>4.6018585689999998E-7</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999953981414313</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8">
         <v>296</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>856</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <v>933</v>
       </c>
-      <c r="F23" s="4" t="str">
+      <c r="F23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="8">
         <v>999</v>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="J23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="8">
         <v>933</v>
       </c>
-      <c r="L23" s="4" t="str">
+      <c r="L23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="7">
         <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8">
         <v>739</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>965</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>1057</v>
       </c>
-      <c r="F24" s="4" t="str">
+      <c r="F24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="8">
         <v>1010</v>
       </c>
-      <c r="J24" s="4" t="str">
+      <c r="J24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="8">
         <v>947</v>
       </c>
-      <c r="L24" s="4" t="str">
+      <c r="L24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="7">
         <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>3.1792682249999995E-7</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999968207317746</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>568</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="8">
         <v>938</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="8">
         <v>959</v>
       </c>
-      <c r="F25" s="4" t="str">
+      <c r="F25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
         <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="8">
         <v>955</v>
       </c>
-      <c r="J25" s="4" t="str">
+      <c r="J25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="8">
         <v>946</v>
       </c>
-      <c r="L25" s="4" t="str">
+      <c r="L25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="7">
         <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>4.6018585689999998E-7</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999953981414313</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8">
         <v>819</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>999</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="8">
         <v>896</v>
       </c>
-      <c r="F26" s="4" t="str">
+      <c r="F26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7">
         <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="8">
         <v>1060</v>
       </c>
-      <c r="J26" s="4" t="str">
+      <c r="J26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="8">
         <v>897</v>
       </c>
-      <c r="L26" s="4" t="str">
+      <c r="L26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="7">
         <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.0547289999999998E-6</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999894527099997</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8">
         <v>786</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>995</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="8">
         <v>979</v>
       </c>
-      <c r="F27" s="4" t="str">
+      <c r="F27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
         <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="8">
         <v>1060</v>
       </c>
-      <c r="J27" s="4" t="str">
+      <c r="J27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="8">
         <v>897</v>
       </c>
-      <c r="L27" s="4" t="str">
+      <c r="L27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="7">
         <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>2.3783808400000003E-6</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999762161915995</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8">
         <v>728</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>964</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="8">
         <v>976</v>
       </c>
-      <c r="F28" s="4" t="str">
+      <c r="F28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
         <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="8">
         <v>1060</v>
       </c>
-      <c r="J28" s="4" t="str">
+      <c r="J28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="8">
         <v>897</v>
       </c>
-      <c r="L28" s="4" t="str">
+      <c r="L28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="7">
         <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5013300089999999E-7</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999984986699908</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8">
         <v>717</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>964</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="8">
         <v>976</v>
       </c>
-      <c r="F29" s="4" t="str">
+      <c r="F29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
         <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="8">
         <v>995</v>
       </c>
-      <c r="J29" s="4" t="str">
+      <c r="J29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="8">
         <v>979</v>
       </c>
-      <c r="L29" s="4" t="str">
+      <c r="L29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="7">
         <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5013300089999999E-7</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999984986699908</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8">
         <v>660</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>955</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="8">
         <v>979</v>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="F30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
         <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="8">
         <v>965</v>
       </c>
-      <c r="J30" s="4" t="str">
+      <c r="J30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="8">
         <v>1057</v>
       </c>
-      <c r="L30" s="4" t="str">
+      <c r="L30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="7">
         <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8">
         <v>659</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="8">
         <v>955</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="8">
         <v>979</v>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="F31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
         <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="8">
         <v>964</v>
       </c>
-      <c r="J31" s="4" t="str">
+      <c r="J31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="8">
         <v>976</v>
       </c>
-      <c r="L31" s="4" t="str">
+      <c r="L31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="7">
         <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5992131600000002E-6</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999840078683999</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8">
         <v>544</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="8">
         <v>938</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="8">
         <v>955</v>
       </c>
-      <c r="F32" s="4" t="str">
+      <c r="F32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
         <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="8">
         <v>955</v>
       </c>
-      <c r="J32" s="4" t="str">
+      <c r="J32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="8">
         <v>946</v>
       </c>
-      <c r="L32" s="4" t="str">
+      <c r="L32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="7">
         <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8">
         <v>542</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="8">
         <v>938</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="8">
         <v>955</v>
       </c>
-      <c r="F33" s="4" t="str">
+      <c r="F33" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
         <f t="array" ref="H33">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="8">
         <v>938</v>
       </c>
-      <c r="J33" s="4" t="str">
+      <c r="J33" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="8">
         <v>959</v>
       </c>
-      <c r="L33" s="4" t="str">
+      <c r="L33" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="7">
         <f t="array" ref="M33">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8">
         <v>519</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="8">
         <v>938</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="8">
         <v>946</v>
       </c>
-      <c r="F34" s="4" t="str">
+      <c r="F34" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
         <f t="array" ref="H34">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="8">
         <v>955</v>
       </c>
-      <c r="J34" s="4" t="str">
+      <c r="J34" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="8">
         <v>946</v>
       </c>
-      <c r="L34" s="4" t="str">
+      <c r="L34" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="7">
         <f t="array" ref="M34">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8">
         <v>516</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="8">
         <v>938</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="8">
         <v>946</v>
       </c>
-      <c r="F35" s="4" t="str">
+      <c r="F35" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7">
         <f t="array" ref="H35">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="8">
         <v>938</v>
       </c>
-      <c r="J35" s="4" t="str">
+      <c r="J35" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="8">
         <v>955</v>
       </c>
-      <c r="L35" s="4" t="str">
+      <c r="L35" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="7">
         <f t="array" ref="M35">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8">
         <v>435</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="8">
         <v>933</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="8">
         <v>959</v>
       </c>
-      <c r="F36" s="4" t="str">
+      <c r="F36" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7">
         <f t="array" ref="H36">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="8">
         <v>938</v>
       </c>
-      <c r="J36" s="4" t="str">
+      <c r="J36" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="8">
         <v>955</v>
       </c>
-      <c r="L36" s="4" t="str">
+      <c r="L36" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="7">
         <f t="array" ref="M36">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8">
         <v>414</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="8">
         <v>933</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="8">
         <v>955</v>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="F37" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7">
         <f t="array" ref="H37">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="8">
         <v>964</v>
       </c>
-      <c r="J37" s="4" t="str">
+      <c r="J37" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="8">
         <v>976</v>
       </c>
-      <c r="L37" s="4" t="str">
+      <c r="L37" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="7">
         <f t="array" ref="M37">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8">
         <v>388</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="8">
         <v>933</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="8">
         <v>895</v>
       </c>
-      <c r="F38" s="4" t="str">
+      <c r="F38" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7">
         <f t="array" ref="H38">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="8">
         <v>995</v>
       </c>
-      <c r="J38" s="4" t="str">
+      <c r="J38" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="8">
         <v>979</v>
       </c>
-      <c r="L38" s="4" t="str">
+      <c r="L38" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="7">
         <f t="array" ref="M38">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="8">
         <v>376</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="8">
         <v>933</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="8">
         <v>895</v>
       </c>
-      <c r="F39" s="4" t="str">
+      <c r="F39" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7">
         <f t="array" ref="H39">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="8">
         <v>938</v>
       </c>
-      <c r="J39" s="4" t="str">
+      <c r="J39" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="8">
         <v>955</v>
       </c>
-      <c r="L39" s="4" t="str">
+      <c r="L39" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="7">
         <f t="array" ref="M39">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8">
         <v>372</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="8">
         <v>933</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="8">
         <v>895</v>
       </c>
-      <c r="F40" s="4" t="str">
+      <c r="F40" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7">
         <f t="array" ref="H40">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="8">
         <v>933</v>
       </c>
-      <c r="J40" s="4" t="str">
+      <c r="J40" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="8">
         <v>959</v>
       </c>
-      <c r="L40" s="4" t="str">
+      <c r="L40" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="7">
         <f t="array" ref="M40">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="8">
         <v>360</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="8">
         <v>896</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="8">
         <v>897</v>
       </c>
-      <c r="F41" s="4" t="str">
+      <c r="F41" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7">
         <f t="array" ref="H41">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="8">
         <v>999</v>
       </c>
-      <c r="J41" s="4" t="str">
+      <c r="J41" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="8">
         <v>896</v>
       </c>
-      <c r="L41" s="4" t="str">
+      <c r="L41" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="7">
         <f t="array" ref="M41">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.5982236099999996E-8</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999990401776395</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="8">
         <v>292</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="8">
         <v>856</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="8">
         <v>933</v>
       </c>
-      <c r="F42" s="4" t="str">
+      <c r="F42" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7">
         <f t="array" ref="H42">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="8">
         <v>995</v>
       </c>
-      <c r="J42" s="4" t="str">
+      <c r="J42" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="8">
         <v>979</v>
       </c>
-      <c r="L42" s="4" t="str">
+      <c r="L42" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="7">
         <f t="array" ref="M42">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="11">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="11">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="N43" s="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8">
         <f>1-Tabela14[[#Totals],[P Eq]]</f>
         <v>3.8396879704083453E-5</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="8">
         <f>PRODUCT(Tabela14[P Eq])</f>
         <v>0.99996160312029592</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="12">
         <f>PRODUCT(P2:P42)</f>
         <v>1</v>
       </c>
